--- a/sict/day14/result.xlsx
+++ b/sict/day14/result.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:r>
       <x:rPr>
@@ -275,125 +275,128 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최저 온도 발생 지역</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>26°</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최저 온도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>22°</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최고 온도 발생일</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최고 온도 발생 지역</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>18°</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최고 온도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>2023년 5월 27일</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최저 온도 평균</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>최고 온도 평균</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>19°</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023년 5월 28일</x:t>
+  </x:si>
+  <x:si>
     <x:t>24°</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최저 온도 발생 지역</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최저 온도</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
+    <x:t>2023년 5월 29일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20°</x:t>
   </x:si>
   <x:si>
     <x:t>21°</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최고 온도 발생일</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최고 온도 발생 지역</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>18°</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최고 온도</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>2023년 5월 27일</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최저 온도 평균</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>26°</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>최고 온도 평균</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>2023년 5월 28일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023년 5월 29일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20°</x:t>
   </x:si>
   <x:si>
     <x:t>2023년 5월 30일</x:t>
@@ -1009,7 +1012,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
         <x:v>23</x:v>
@@ -1035,7 +1038,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
         <x:v>29</x:v>
@@ -1067,10 +1070,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I9" s="11" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="I9" s="11" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
         <x:v>11</x:v>
@@ -1093,7 +1096,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G10" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I10" s="11" t="s">
         <x:v>34</x:v>
@@ -1139,13 +1142,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G12" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I12" s="11" t="s">
         <x:v>38</x:v>
@@ -1162,10 +1165,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
         <x:v>39</x:v>
@@ -1223,10 +1226,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G15" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="11" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="I15" s="11" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="J15" s="8" t="s">
         <x:v>30</x:v>
@@ -1240,7 +1243,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>17</x:v>
@@ -1286,10 +1289,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G18" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
@@ -1369,7 +1372,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G22" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
@@ -1386,7 +1389,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F23" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G23" s="6" t="s">
         <x:v>30</x:v>
@@ -1409,7 +1412,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G24" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
@@ -1426,10 +1429,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F25" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G25" s="6" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="G25" s="6" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
@@ -1446,7 +1449,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G26" s="6" t="s">
         <x:v>24</x:v>
@@ -1466,10 +1469,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F27" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G27" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
@@ -1486,7 +1489,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G28" s="6" t="s">
         <x:v>15</x:v>
@@ -1494,7 +1497,7 @@
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="B29" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
@@ -1509,12 +1512,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G29" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="B30" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
         <x:v>18</x:v>
@@ -1534,7 +1537,7 @@
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="B31" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
         <x:v>22</x:v>
@@ -1549,12 +1552,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G31" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="B32" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
         <x:v>10</x:v>
@@ -1574,7 +1577,7 @@
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="B33" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>28</x:v>
@@ -1594,7 +1597,7 @@
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="B34" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
         <x:v>11</x:v>
@@ -1609,12 +1612,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G34" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="B35" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
         <x:v>18</x:v>
@@ -1634,7 +1637,7 @@
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="B36" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
         <x:v>22</x:v>
@@ -1649,12 +1652,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G36" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="B37" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>10</x:v>
@@ -1669,12 +1672,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G37" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="B38" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C38" s="6" t="s">
         <x:v>28</x:v>
@@ -1694,7 +1697,7 @@
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="B39" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
         <x:v>11</x:v>
@@ -1714,7 +1717,7 @@
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="B40" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
         <x:v>18</x:v>
@@ -1734,7 +1737,7 @@
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="B41" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>22</x:v>
@@ -1754,7 +1757,7 @@
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="B42" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
         <x:v>10</x:v>
@@ -1774,7 +1777,7 @@
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="B43" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C43" s="6" t="s">
         <x:v>28</x:v>
@@ -1789,7 +1792,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G43" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/sict/day14/result.xlsx
+++ b/sict/day14/result.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:r>
       <x:rPr>
@@ -381,22 +381,19 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:t>24°</x:t>
+  </x:si>
+  <x:si>
     <x:t>19°</x:t>
   </x:si>
   <x:si>
     <x:t>2023년 5월 28일</x:t>
   </x:si>
   <x:si>
-    <x:t>24°</x:t>
-  </x:si>
-  <x:si>
     <x:t>2023년 5월 29일</x:t>
   </x:si>
   <x:si>
     <x:t>20°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21°</x:t>
   </x:si>
   <x:si>
     <x:t>2023년 5월 30일</x:t>
@@ -1246,7 +1243,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F16" s="6" t="s">
         <x:v>39</x:v>
@@ -1266,13 +1263,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F17" s="6" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G17" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
@@ -1289,7 +1286,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G18" s="6" t="s">
         <x:v>33</x:v>
@@ -1297,47 +1294,47 @@
     </x:row>
     <x:row r="19" spans="1:14">
       <x:c r="B19" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F19" s="6" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G19" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14">
       <x:c r="B20" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F20" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G20" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14">
       <x:c r="B21" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="6" t="s">
         <x:v>22</x:v>
@@ -1346,7 +1343,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F21" s="6" t="s">
         <x:v>39</x:v>
@@ -1357,13 +1354,13 @@
     </x:row>
     <x:row r="22" spans="1:14">
       <x:c r="B22" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D22" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E22" s="6" t="s">
         <x:v>27</x:v>
@@ -1372,12 +1369,12 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G22" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="B23" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C23" s="6" t="s">
         <x:v>28</x:v>
@@ -1386,10 +1383,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E23" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F23" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G23" s="6" t="s">
         <x:v>30</x:v>
@@ -1429,10 +1426,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F25" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G25" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
@@ -1449,7 +1446,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G26" s="6" t="s">
         <x:v>24</x:v>
@@ -1469,10 +1466,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F27" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G27" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
@@ -1489,7 +1486,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G28" s="6" t="s">
         <x:v>15</x:v>
@@ -1497,7 +1494,7 @@
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="B29" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
@@ -1512,12 +1509,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G29" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="B30" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
         <x:v>18</x:v>
@@ -1529,15 +1526,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F30" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G30" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="B31" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
         <x:v>22</x:v>
@@ -1549,15 +1546,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F31" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G31" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="B32" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
         <x:v>10</x:v>
@@ -1577,7 +1574,7 @@
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="B33" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>28</x:v>
@@ -1597,7 +1594,7 @@
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="B34" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
         <x:v>11</x:v>
@@ -1612,12 +1609,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G34" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="B35" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
         <x:v>18</x:v>
@@ -1626,18 +1623,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E35" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F35" s="6" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="G35" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="B36" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
         <x:v>22</x:v>
@@ -1652,12 +1649,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G36" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="B37" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>10</x:v>
@@ -1666,18 +1663,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F37" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="G37" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="B38" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="6" t="s">
         <x:v>28</x:v>
@@ -1692,12 +1689,12 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G38" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="B39" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
         <x:v>11</x:v>
@@ -1717,7 +1714,7 @@
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="B40" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
         <x:v>18</x:v>
@@ -1737,7 +1734,7 @@
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="B41" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>22</x:v>
@@ -1757,7 +1754,7 @@
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="B42" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
         <x:v>10</x:v>
@@ -1766,18 +1763,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E42" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F42" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="G42" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="B43" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C43" s="6" t="s">
         <x:v>28</x:v>
@@ -1792,7 +1789,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G43" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
